--- a/DB-Shema.xlsx
+++ b/DB-Shema.xlsx
@@ -43,148 +43,148 @@
     <t>Position</t>
   </si>
   <si>
+    <t>Autor</t>
+  </si>
+  <si>
+    <t>varchar (1000)</t>
+  </si>
+  <si>
+    <t>varchar(1000)</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>varchar(1000)</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+  </si>
+  <si>
+    <t>max. 1 link</t>
+  </si>
+  <si>
+    <t>Kommentar</t>
+  </si>
+  <si>
+    <t>ID_Komm</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Bewertung</t>
+  </si>
+  <si>
+    <t>Hyperlink</t>
+  </si>
+  <si>
+    <t>Anfangsdatum</t>
+  </si>
+  <si>
+    <t>Enddatum</t>
+  </si>
+  <si>
+    <t>Kategorie</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>varchar (1000)</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>varchar(1000)</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>max. 1 link</t>
+  </si>
+  <si>
+    <t>KOTO</t>
+  </si>
+  <si>
+    <t>ID_KOTO</t>
+  </si>
+  <si>
+    <t>URL_KOTO</t>
+  </si>
+  <si>
+    <t>int </t>
+  </si>
+  <si>
+    <t>varchar(1000)</t>
+  </si>
+  <si>
+    <t>TOTA</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>varchar(1000)</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>Nutzer</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
-    <t>varchar (50)</t>
-  </si>
-  <si>
-    <t>varchar(1000)</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>varchar(1000)</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-  </si>
-  <si>
-    <t>geom</t>
+    <t>Passwort</t>
+  </si>
+  <si>
+    <t>Ort</t>
+  </si>
+  <si>
+    <t>PLZ</t>
+  </si>
+  <si>
+    <t>Land</t>
   </si>
   <si>
     <t>varchar(30)</t>
   </si>
   <si>
-    <t>max. 1 link</t>
-  </si>
-  <si>
-    <t>Kommentar</t>
-  </si>
-  <si>
-    <t>ID_Komm</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>Bewertung</t>
-  </si>
-  <si>
-    <t>Hyperlink</t>
-  </si>
-  <si>
-    <t>Anfangsdatum</t>
-  </si>
-  <si>
-    <t>Enddatum</t>
-  </si>
-  <si>
-    <t>Kategorie</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>varchar (1000)</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>varchar(1000)</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-  </si>
-  <si>
-    <t>max. 1 link</t>
-  </si>
-  <si>
-    <t>KOTO</t>
-  </si>
-  <si>
-    <t>ID_KOTO</t>
-  </si>
-  <si>
-    <t>URL_KOTO</t>
-  </si>
-  <si>
-    <t>int </t>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-  </si>
-  <si>
-    <t>TOTA</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Tag</t>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-  </si>
-  <si>
-    <t>Nutzer</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Passwort</t>
-  </si>
-  <si>
-    <t>Ort</t>
-  </si>
-  <si>
-    <t>PLZ</t>
-  </si>
-  <si>
-    <t>Land</t>
-  </si>
-  <si>
     <t>varchar(30)</t>
   </si>
   <si>
     <t>varchar(30)</t>
   </si>
   <si>
-    <t>varchar(30)</t>
-  </si>
-  <si>
-    <t>int</t>
+    <t>varchar(25)</t>
   </si>
   <si>
     <t>varchar(25)</t>
@@ -197,7 +197,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <name val="Arial"/>
@@ -213,13 +213,22 @@
     <font>
       <i/>
     </font>
+    <font>
+      <sz val="10.0"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -254,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
     <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment/>
@@ -271,6 +280,10 @@
     <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="2" applyFont="1" fontId="4">
       <alignment/>
     </xf>
+    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="5" applyFill="1">
+      <alignment/>
+    </xf>
+    <xf fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1"/>
     <xf applyBorder="1" applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="2" applyFont="1" fontId="2">
       <alignment/>
     </xf>
@@ -332,6 +345,8 @@
       <c t="s" s="5" r="K2">
         <v>10</v>
       </c>
+      <c s="6" r="L2"/>
+      <c s="7" r="M2"/>
     </row>
     <row r="3">
       <c s="1" r="A3"/>
@@ -365,11 +380,15 @@
       <c t="s" s="4" r="K3">
         <v>20</v>
       </c>
+      <c s="6" r="L3"/>
+      <c s="7" r="M3"/>
     </row>
     <row r="4">
       <c t="s" s="1" r="E4">
         <v>21</v>
       </c>
+      <c s="6" r="L4"/>
+      <c s="7" r="M4"/>
     </row>
     <row r="5">
       <c s="1" r="A5"/>
@@ -433,14 +452,20 @@
       <c t="s" s="2" r="B9">
         <v>38</v>
       </c>
+      <c s="7" r="D9"/>
+      <c s="7" r="E9"/>
+      <c s="7" r="F9"/>
     </row>
     <row r="10">
-      <c t="s" s="6" r="B10">
+      <c t="s" s="8" r="B10">
         <v>39</v>
       </c>
-      <c t="s" s="6" r="C10">
+      <c t="s" s="8" r="C10">
         <v>40</v>
       </c>
+      <c s="7" r="D10"/>
+      <c s="6" r="E10"/>
+      <c s="7" r="F10"/>
     </row>
     <row r="11">
       <c t="s" s="4" r="B11">
@@ -449,14 +474,25 @@
       <c t="s" s="4" r="C11">
         <v>42</v>
       </c>
+      <c s="7" r="D11"/>
+      <c s="6" r="E11"/>
+      <c s="7" r="F11"/>
+    </row>
+    <row r="12">
+      <c s="7" r="D12"/>
+      <c s="6" r="E12"/>
+      <c s="7" r="F12"/>
     </row>
     <row r="13">
       <c t="s" s="2" r="B13">
         <v>43</v>
       </c>
+      <c s="7" r="D13"/>
+      <c s="7" r="E13"/>
+      <c s="7" r="F13"/>
     </row>
     <row r="14">
-      <c t="s" s="6" r="B14">
+      <c t="s" s="8" r="B14">
         <v>44</v>
       </c>
       <c t="s" s="4" r="C14">
